--- a/database/industries/urea/khorasan/product/yearly_seprated.xlsx
+++ b/database/industries/urea/khorasan/product/yearly_seprated.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="c:\Users\EBRAHIMI\Desktop\Trade\database\industries\urea\khorasan\product\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\EBRAHIMI\Desktop\Trade\database\industries\urea\khorasan\product\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D082584-8E69-481C-913A-C0530EAA64D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1AD3CF39-F88A-43F8-A5B6-AAA170051430}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3120" yWindow="3120" windowWidth="21600" windowHeight="11025" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1152" yWindow="1152" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="354" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="291" uniqueCount="54">
   <si>
     <t>Pouya Finance</t>
   </si>
@@ -37,9 +37,6 @@
     <t>مقدار فروش</t>
   </si>
   <si>
-    <t>دوازده ماهه منتهی به 1396/12</t>
-  </si>
-  <si>
     <t>دوازده ماهه منتهی به 1397/12</t>
   </si>
   <si>
@@ -52,6 +49,9 @@
     <t>دوازده ماهه منتهی به 1400/12</t>
   </si>
   <si>
+    <t>دوازده ماهه منتهی به 1401/12</t>
+  </si>
+  <si>
     <t>مقدار فروش داخلی</t>
   </si>
   <si>
@@ -61,13 +61,13 @@
     <t>تن</t>
   </si>
   <si>
+    <t>آمونیاک</t>
+  </si>
+  <si>
+    <t>اوره صنعتی</t>
+  </si>
+  <si>
     <t>-</t>
-  </si>
-  <si>
-    <t>آمونیاک</t>
-  </si>
-  <si>
-    <t>اوره صنعتی</t>
   </si>
   <si>
     <t>کریستال ملامین</t>
@@ -664,12 +664,12 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="9" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -679,7 +679,7 @@
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
     </row>
-    <row r="2" spans="2:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
@@ -691,7 +691,7 @@
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
     </row>
-    <row r="3" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
@@ -703,7 +703,7 @@
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
     </row>
-    <row r="4" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -713,7 +713,7 @@
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
     </row>
-    <row r="5" spans="2:9" ht="42" x14ac:dyDescent="0.65">
+    <row r="5" spans="2:9" ht="40.799999999999997" x14ac:dyDescent="0.75">
       <c r="B5" s="4" t="s">
         <v>2</v>
       </c>
@@ -725,7 +725,7 @@
       <c r="H5" s="4"/>
       <c r="I5" s="4"/>
     </row>
-    <row r="6" spans="2:9" ht="42" x14ac:dyDescent="0.65">
+    <row r="6" spans="2:9" ht="40.799999999999997" x14ac:dyDescent="0.75">
       <c r="B6" s="5" t="s">
         <v>3</v>
       </c>
@@ -737,7 +737,7 @@
       <c r="H6" s="4"/>
       <c r="I6" s="4"/>
     </row>
-    <row r="7" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -747,7 +747,7 @@
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
     </row>
-    <row r="8" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B8" s="7" t="s">
         <v>4</v>
       </c>
@@ -769,7 +769,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
@@ -779,7 +779,7 @@
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
     </row>
-    <row r="10" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B10" s="8" t="s">
         <v>10</v>
       </c>
@@ -791,7 +791,7 @@
       <c r="H10" s="9"/>
       <c r="I10" s="9"/>
     </row>
-    <row r="11" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B11" s="10" t="s">
         <v>11</v>
       </c>
@@ -799,71 +799,71 @@
         <v>12</v>
       </c>
       <c r="D11" s="11"/>
-      <c r="E11" s="11" t="s">
+      <c r="E11" s="11">
+        <v>228113</v>
+      </c>
+      <c r="F11" s="11">
+        <v>169710</v>
+      </c>
+      <c r="G11" s="11">
+        <v>192493</v>
+      </c>
+      <c r="H11" s="11">
+        <v>0</v>
+      </c>
+      <c r="I11" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B12" s="12" t="s">
         <v>13</v>
-      </c>
-      <c r="F11" s="11">
-        <v>228113</v>
-      </c>
-      <c r="G11" s="11">
-        <v>169710</v>
-      </c>
-      <c r="H11" s="11">
-        <v>192493</v>
-      </c>
-      <c r="I11" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B12" s="12" t="s">
-        <v>14</v>
       </c>
       <c r="C12" s="13" t="s">
         <v>12</v>
       </c>
       <c r="D12" s="13"/>
-      <c r="E12" s="13" t="s">
-        <v>13</v>
+      <c r="E12" s="13">
+        <v>22183</v>
       </c>
       <c r="F12" s="13">
-        <v>22183</v>
+        <v>23411</v>
       </c>
       <c r="G12" s="13">
-        <v>23411</v>
+        <v>9193</v>
       </c>
       <c r="H12" s="13">
-        <v>9193</v>
+        <v>21115</v>
       </c>
       <c r="I12" s="13">
-        <v>21115</v>
-      </c>
-    </row>
-    <row r="13" spans="2:9" x14ac:dyDescent="0.25">
+        <v>11894</v>
+      </c>
+    </row>
+    <row r="13" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B13" s="10" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C13" s="11" t="s">
         <v>12</v>
       </c>
       <c r="D13" s="11"/>
       <c r="E13" s="11" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="F13" s="11" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="G13" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="H13" s="11" t="s">
-        <v>13</v>
+        <v>15</v>
+      </c>
+      <c r="H13" s="11">
+        <v>13118</v>
       </c>
       <c r="I13" s="11">
-        <v>13118</v>
-      </c>
-    </row>
-    <row r="14" spans="2:9" x14ac:dyDescent="0.25">
+        <v>15513</v>
+      </c>
+    </row>
+    <row r="14" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B14" s="12" t="s">
         <v>16</v>
       </c>
@@ -871,23 +871,23 @@
         <v>12</v>
       </c>
       <c r="D14" s="13"/>
-      <c r="E14" s="13" t="s">
-        <v>13</v>
+      <c r="E14" s="13">
+        <v>9595</v>
       </c>
       <c r="F14" s="13">
-        <v>9595</v>
+        <v>9472</v>
       </c>
       <c r="G14" s="13">
-        <v>9472</v>
+        <v>13139</v>
       </c>
       <c r="H14" s="13">
-        <v>13139</v>
+        <v>0</v>
       </c>
       <c r="I14" s="13">
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B15" s="10" t="s">
         <v>17</v>
       </c>
@@ -896,22 +896,22 @@
       </c>
       <c r="D15" s="11"/>
       <c r="E15" s="11" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="F15" s="11" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="G15" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="H15" s="11" t="s">
-        <v>13</v>
+        <v>15</v>
+      </c>
+      <c r="H15" s="11">
+        <v>12693</v>
       </c>
       <c r="I15" s="11">
-        <v>12693</v>
-      </c>
-    </row>
-    <row r="16" spans="2:9" x14ac:dyDescent="0.25">
+        <v>12940</v>
+      </c>
+    </row>
+    <row r="16" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B16" s="12" t="s">
         <v>18</v>
       </c>
@@ -920,22 +920,22 @@
       </c>
       <c r="D16" s="13"/>
       <c r="E16" s="13" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="F16" s="13" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="G16" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="H16" s="13" t="s">
-        <v>13</v>
+        <v>15</v>
+      </c>
+      <c r="H16" s="13">
+        <v>0</v>
       </c>
       <c r="I16" s="13">
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B17" s="10" t="s">
         <v>19</v>
       </c>
@@ -944,22 +944,22 @@
       </c>
       <c r="D17" s="11"/>
       <c r="E17" s="11" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="F17" s="11" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="G17" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="H17" s="11" t="s">
-        <v>13</v>
+        <v>15</v>
+      </c>
+      <c r="H17" s="11">
+        <v>0</v>
       </c>
       <c r="I17" s="11">
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B18" s="12" t="s">
         <v>20</v>
       </c>
@@ -968,22 +968,22 @@
       </c>
       <c r="D18" s="13"/>
       <c r="E18" s="13" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="F18" s="13" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="G18" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="H18" s="13" t="s">
-        <v>13</v>
+        <v>15</v>
+      </c>
+      <c r="H18" s="13">
+        <v>0</v>
       </c>
       <c r="I18" s="13">
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B19" s="10" t="s">
         <v>21</v>
       </c>
@@ -992,44 +992,44 @@
       </c>
       <c r="D19" s="11"/>
       <c r="E19" s="11" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="F19" s="11" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="G19" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="H19" s="11" t="s">
-        <v>13</v>
+        <v>15</v>
+      </c>
+      <c r="H19" s="11">
+        <v>186775</v>
       </c>
       <c r="I19" s="11">
-        <v>186775</v>
-      </c>
-    </row>
-    <row r="20" spans="2:9" x14ac:dyDescent="0.25">
+        <v>123211</v>
+      </c>
+    </row>
+    <row r="20" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B20" s="14" t="s">
         <v>22</v>
       </c>
       <c r="C20" s="15"/>
       <c r="D20" s="15"/>
       <c r="E20" s="15">
-        <v>0</v>
+        <v>259891</v>
       </c>
       <c r="F20" s="15">
-        <v>259891</v>
+        <v>202593</v>
       </c>
       <c r="G20" s="15">
-        <v>202593</v>
+        <v>214825</v>
       </c>
       <c r="H20" s="15">
-        <v>214825</v>
+        <v>233701</v>
       </c>
       <c r="I20" s="15">
-        <v>233701</v>
-      </c>
-    </row>
-    <row r="21" spans="2:9" x14ac:dyDescent="0.25">
+        <v>163558</v>
+      </c>
+    </row>
+    <row r="21" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B21" s="8" t="s">
         <v>23</v>
       </c>
@@ -1041,7 +1041,7 @@
       <c r="H21" s="9"/>
       <c r="I21" s="9"/>
     </row>
-    <row r="22" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B22" s="10" t="s">
         <v>11</v>
       </c>
@@ -1049,47 +1049,47 @@
         <v>12</v>
       </c>
       <c r="D22" s="11"/>
-      <c r="E22" s="11" t="s">
+      <c r="E22" s="11">
+        <v>304286</v>
+      </c>
+      <c r="F22" s="11">
+        <v>356233</v>
+      </c>
+      <c r="G22" s="11">
+        <v>271185</v>
+      </c>
+      <c r="H22" s="11">
+        <v>256923</v>
+      </c>
+      <c r="I22" s="11">
+        <v>371867</v>
+      </c>
+    </row>
+    <row r="23" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B23" s="12" t="s">
         <v>13</v>
-      </c>
-      <c r="F22" s="11">
-        <v>304286</v>
-      </c>
-      <c r="G22" s="11">
-        <v>356233</v>
-      </c>
-      <c r="H22" s="11">
-        <v>271185</v>
-      </c>
-      <c r="I22" s="11">
-        <v>256923</v>
-      </c>
-    </row>
-    <row r="23" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B23" s="12" t="s">
-        <v>14</v>
       </c>
       <c r="C23" s="13" t="s">
         <v>12</v>
       </c>
       <c r="D23" s="13"/>
-      <c r="E23" s="13" t="s">
-        <v>13</v>
+      <c r="E23" s="13">
+        <v>2385</v>
       </c>
       <c r="F23" s="13">
-        <v>2385</v>
+        <v>1237</v>
       </c>
       <c r="G23" s="13">
-        <v>1237</v>
+        <v>2469</v>
       </c>
       <c r="H23" s="13">
-        <v>2469</v>
+        <v>4812</v>
       </c>
       <c r="I23" s="13">
-        <v>4812</v>
-      </c>
-    </row>
-    <row r="24" spans="2:9" x14ac:dyDescent="0.25">
+        <v>16739</v>
+      </c>
+    </row>
+    <row r="24" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B24" s="10" t="s">
         <v>16</v>
       </c>
@@ -1097,45 +1097,45 @@
         <v>12</v>
       </c>
       <c r="D24" s="11"/>
-      <c r="E24" s="11" t="s">
-        <v>13</v>
+      <c r="E24" s="11">
+        <v>8112</v>
       </c>
       <c r="F24" s="11">
-        <v>8112</v>
+        <v>14102</v>
       </c>
       <c r="G24" s="11">
-        <v>14102</v>
+        <v>4396</v>
       </c>
       <c r="H24" s="11">
-        <v>4396</v>
+        <v>6571</v>
       </c>
       <c r="I24" s="11">
-        <v>6571</v>
-      </c>
-    </row>
-    <row r="25" spans="2:9" x14ac:dyDescent="0.25">
+        <v>3194</v>
+      </c>
+    </row>
+    <row r="25" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B25" s="14" t="s">
         <v>24</v>
       </c>
       <c r="C25" s="15"/>
       <c r="D25" s="15"/>
       <c r="E25" s="15">
-        <v>0</v>
+        <v>314783</v>
       </c>
       <c r="F25" s="15">
-        <v>314783</v>
+        <v>371572</v>
       </c>
       <c r="G25" s="15">
-        <v>371572</v>
+        <v>278050</v>
       </c>
       <c r="H25" s="15">
-        <v>278050</v>
+        <v>268306</v>
       </c>
       <c r="I25" s="15">
-        <v>268306</v>
-      </c>
-    </row>
-    <row r="26" spans="2:9" x14ac:dyDescent="0.25">
+        <v>391800</v>
+      </c>
+    </row>
+    <row r="26" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B26" s="16" t="s">
         <v>25</v>
       </c>
@@ -1147,7 +1147,7 @@
       <c r="H26" s="17"/>
       <c r="I26" s="17"/>
     </row>
-    <row r="27" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B27" s="18" t="s">
         <v>26</v>
       </c>
@@ -1169,7 +1169,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B28" s="14" t="s">
         <v>27</v>
       </c>
@@ -1177,8 +1177,8 @@
         <v>28</v>
       </c>
       <c r="D28" s="15"/>
-      <c r="E28" s="15" t="s">
-        <v>13</v>
+      <c r="E28" s="15">
+        <v>0</v>
       </c>
       <c r="F28" s="15">
         <v>0</v>
@@ -1186,21 +1186,21 @@
       <c r="G28" s="15">
         <v>0</v>
       </c>
-      <c r="H28" s="15">
-        <v>0</v>
+      <c r="H28" s="15" t="s">
+        <v>15</v>
       </c>
       <c r="I28" s="15" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="29" spans="2:9" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="29" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B29" s="18" t="s">
         <v>29</v>
       </c>
       <c r="C29" s="19"/>
       <c r="D29" s="19"/>
-      <c r="E29" s="19" t="s">
-        <v>13</v>
+      <c r="E29" s="19">
+        <v>0</v>
       </c>
       <c r="F29" s="19">
         <v>0</v>
@@ -1215,29 +1215,29 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B30" s="14" t="s">
         <v>30</v>
       </c>
       <c r="C30" s="15"/>
       <c r="D30" s="15"/>
       <c r="E30" s="15">
-        <v>0</v>
+        <v>574674</v>
       </c>
       <c r="F30" s="15">
-        <v>574674</v>
+        <v>574165</v>
       </c>
       <c r="G30" s="15">
-        <v>574165</v>
+        <v>492875</v>
       </c>
       <c r="H30" s="15">
-        <v>492875</v>
+        <v>502007</v>
       </c>
       <c r="I30" s="15">
-        <v>502007</v>
-      </c>
-    </row>
-    <row r="31" spans="2:9" x14ac:dyDescent="0.25">
+        <v>555358</v>
+      </c>
+    </row>
+    <row r="31" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B31" s="1"/>
       <c r="C31" s="1"/>
       <c r="D31" s="1"/>
@@ -1247,7 +1247,7 @@
       <c r="H31" s="1"/>
       <c r="I31" s="1"/>
     </row>
-    <row r="32" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B32" s="1"/>
       <c r="C32" s="1"/>
       <c r="D32" s="1"/>
@@ -1257,7 +1257,7 @@
       <c r="H32" s="1"/>
       <c r="I32" s="1"/>
     </row>
-    <row r="33" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B33" s="1"/>
       <c r="C33" s="1"/>
       <c r="D33" s="1"/>
@@ -1267,7 +1267,7 @@
       <c r="H33" s="1"/>
       <c r="I33" s="1"/>
     </row>
-    <row r="34" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B34" s="7" t="s">
         <v>31</v>
       </c>
@@ -1289,7 +1289,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="35" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B35" s="1"/>
       <c r="C35" s="1"/>
       <c r="D35" s="1"/>
@@ -1299,7 +1299,7 @@
       <c r="H35" s="1"/>
       <c r="I35" s="1"/>
     </row>
-    <row r="36" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B36" s="8" t="s">
         <v>32</v>
       </c>
@@ -1311,7 +1311,7 @@
       <c r="H36" s="9"/>
       <c r="I36" s="9"/>
     </row>
-    <row r="37" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B37" s="10" t="s">
         <v>11</v>
       </c>
@@ -1319,71 +1319,71 @@
         <v>33</v>
       </c>
       <c r="D37" s="11"/>
-      <c r="E37" s="11" t="s">
+      <c r="E37" s="11">
+        <v>2543247</v>
+      </c>
+      <c r="F37" s="11">
+        <v>2915488</v>
+      </c>
+      <c r="G37" s="11">
+        <v>6097408</v>
+      </c>
+      <c r="H37" s="11">
+        <v>0</v>
+      </c>
+      <c r="I37" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B38" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="F37" s="11">
-        <v>2543247</v>
-      </c>
-      <c r="G37" s="11">
-        <v>2915488</v>
-      </c>
-      <c r="H37" s="11">
-        <v>6097408</v>
-      </c>
-      <c r="I37" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B38" s="12" t="s">
+      <c r="C38" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="D38" s="13"/>
+      <c r="E38" s="13">
+        <v>295771</v>
+      </c>
+      <c r="F38" s="13">
+        <v>318858</v>
+      </c>
+      <c r="G38" s="13">
+        <v>258998</v>
+      </c>
+      <c r="H38" s="13">
+        <v>1943027</v>
+      </c>
+      <c r="I38" s="13">
+        <v>2224389</v>
+      </c>
+    </row>
+    <row r="39" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B39" s="10" t="s">
         <v>14</v>
-      </c>
-      <c r="C38" s="13" t="s">
-        <v>33</v>
-      </c>
-      <c r="D38" s="13"/>
-      <c r="E38" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="F38" s="13">
-        <v>295771</v>
-      </c>
-      <c r="G38" s="13">
-        <v>318858</v>
-      </c>
-      <c r="H38" s="13">
-        <v>258998</v>
-      </c>
-      <c r="I38" s="13">
-        <v>1943027</v>
-      </c>
-    </row>
-    <row r="39" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B39" s="10" t="s">
-        <v>15</v>
       </c>
       <c r="C39" s="11" t="s">
         <v>33</v>
       </c>
       <c r="D39" s="11"/>
       <c r="E39" s="11" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="F39" s="11" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="G39" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="H39" s="11" t="s">
-        <v>13</v>
+        <v>15</v>
+      </c>
+      <c r="H39" s="11">
+        <v>1244920</v>
       </c>
       <c r="I39" s="11">
-        <v>1244920</v>
-      </c>
-    </row>
-    <row r="40" spans="2:9" x14ac:dyDescent="0.25">
+        <v>1990989</v>
+      </c>
+    </row>
+    <row r="40" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B40" s="12" t="s">
         <v>16</v>
       </c>
@@ -1391,23 +1391,23 @@
         <v>33</v>
       </c>
       <c r="D40" s="13"/>
-      <c r="E40" s="13" t="s">
-        <v>13</v>
+      <c r="E40" s="13">
+        <v>925271</v>
       </c>
       <c r="F40" s="13">
-        <v>925271</v>
+        <v>943667</v>
       </c>
       <c r="G40" s="13">
-        <v>943667</v>
+        <v>2916473</v>
       </c>
       <c r="H40" s="13">
-        <v>2916473</v>
+        <v>0</v>
       </c>
       <c r="I40" s="13">
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B41" s="10" t="s">
         <v>17</v>
       </c>
@@ -1416,22 +1416,22 @@
       </c>
       <c r="D41" s="11"/>
       <c r="E41" s="11" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="F41" s="11" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="G41" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="H41" s="11" t="s">
-        <v>13</v>
+        <v>15</v>
+      </c>
+      <c r="H41" s="11">
+        <v>7362151</v>
       </c>
       <c r="I41" s="11">
-        <v>7362151</v>
-      </c>
-    </row>
-    <row r="42" spans="2:9" x14ac:dyDescent="0.25">
+        <v>6191246</v>
+      </c>
+    </row>
+    <row r="42" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B42" s="12" t="s">
         <v>18</v>
       </c>
@@ -1440,22 +1440,22 @@
       </c>
       <c r="D42" s="13"/>
       <c r="E42" s="13" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="F42" s="13" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="G42" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="H42" s="13" t="s">
-        <v>13</v>
+        <v>15</v>
+      </c>
+      <c r="H42" s="13">
+        <v>0</v>
       </c>
       <c r="I42" s="13">
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B43" s="10" t="s">
         <v>19</v>
       </c>
@@ -1464,22 +1464,22 @@
       </c>
       <c r="D43" s="11"/>
       <c r="E43" s="11" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="F43" s="11" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="G43" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="H43" s="11" t="s">
-        <v>13</v>
+        <v>15</v>
+      </c>
+      <c r="H43" s="11">
+        <v>0</v>
       </c>
       <c r="I43" s="11">
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B44" s="12" t="s">
         <v>20</v>
       </c>
@@ -1488,22 +1488,22 @@
       </c>
       <c r="D44" s="13"/>
       <c r="E44" s="13" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="F44" s="13" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="G44" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="H44" s="13" t="s">
-        <v>13</v>
+        <v>15</v>
+      </c>
+      <c r="H44" s="13">
+        <v>0</v>
       </c>
       <c r="I44" s="13">
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B45" s="10" t="s">
         <v>21</v>
       </c>
@@ -1512,44 +1512,44 @@
       </c>
       <c r="D45" s="11"/>
       <c r="E45" s="11" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="F45" s="11" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="G45" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="H45" s="11" t="s">
-        <v>13</v>
+        <v>15</v>
+      </c>
+      <c r="H45" s="11">
+        <v>12348052</v>
       </c>
       <c r="I45" s="11">
-        <v>12348052</v>
-      </c>
-    </row>
-    <row r="46" spans="2:9" x14ac:dyDescent="0.25">
+        <v>12103440</v>
+      </c>
+    </row>
+    <row r="46" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B46" s="14" t="s">
         <v>22</v>
       </c>
       <c r="C46" s="15"/>
       <c r="D46" s="15"/>
       <c r="E46" s="15">
-        <v>0</v>
+        <v>3764289</v>
       </c>
       <c r="F46" s="15">
-        <v>3764289</v>
+        <v>4178013</v>
       </c>
       <c r="G46" s="15">
-        <v>4178013</v>
+        <v>9272879</v>
       </c>
       <c r="H46" s="15">
-        <v>9272879</v>
+        <v>22898150</v>
       </c>
       <c r="I46" s="15">
-        <v>22898150</v>
-      </c>
-    </row>
-    <row r="47" spans="2:9" x14ac:dyDescent="0.25">
+        <v>22510064</v>
+      </c>
+    </row>
+    <row r="47" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B47" s="8" t="s">
         <v>34</v>
       </c>
@@ -1561,7 +1561,7 @@
       <c r="H47" s="9"/>
       <c r="I47" s="9"/>
     </row>
-    <row r="48" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B48" s="10" t="s">
         <v>11</v>
       </c>
@@ -1569,47 +1569,47 @@
         <v>33</v>
       </c>
       <c r="D48" s="11"/>
-      <c r="E48" s="11" t="s">
+      <c r="E48" s="11">
+        <v>5027721</v>
+      </c>
+      <c r="F48" s="11">
+        <v>8579989</v>
+      </c>
+      <c r="G48" s="11">
+        <v>11968414</v>
+      </c>
+      <c r="H48" s="11">
+        <v>25239930</v>
+      </c>
+      <c r="I48" s="11">
+        <v>52042032</v>
+      </c>
+    </row>
+    <row r="49" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B49" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="F48" s="11">
-        <v>5027721</v>
-      </c>
-      <c r="G48" s="11">
-        <v>8579989</v>
-      </c>
-      <c r="H48" s="11">
-        <v>11968414</v>
-      </c>
-      <c r="I48" s="11">
-        <v>25239930</v>
-      </c>
-    </row>
-    <row r="49" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B49" s="12" t="s">
-        <v>14</v>
-      </c>
       <c r="C49" s="13" t="s">
         <v>33</v>
       </c>
       <c r="D49" s="13"/>
-      <c r="E49" s="13" t="s">
-        <v>13</v>
+      <c r="E49" s="13">
+        <v>29388</v>
       </c>
       <c r="F49" s="13">
-        <v>29388</v>
+        <v>18242</v>
       </c>
       <c r="G49" s="13">
-        <v>18242</v>
+        <v>71403</v>
       </c>
       <c r="H49" s="13">
-        <v>71403</v>
+        <v>501592</v>
       </c>
       <c r="I49" s="13">
-        <v>501592</v>
-      </c>
-    </row>
-    <row r="50" spans="2:9" x14ac:dyDescent="0.25">
+        <v>3202499</v>
+      </c>
+    </row>
+    <row r="50" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B50" s="10" t="s">
         <v>16</v>
       </c>
@@ -1617,45 +1617,45 @@
         <v>33</v>
       </c>
       <c r="D50" s="11"/>
-      <c r="E50" s="11" t="s">
-        <v>13</v>
+      <c r="E50" s="11">
+        <v>719122</v>
       </c>
       <c r="F50" s="11">
-        <v>719122</v>
+        <v>1377416</v>
       </c>
       <c r="G50" s="11">
-        <v>1377416</v>
+        <v>851752</v>
       </c>
       <c r="H50" s="11">
-        <v>851752</v>
+        <v>4094070</v>
       </c>
       <c r="I50" s="11">
-        <v>4094070</v>
-      </c>
-    </row>
-    <row r="51" spans="2:9" x14ac:dyDescent="0.25">
+        <v>1607585</v>
+      </c>
+    </row>
+    <row r="51" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B51" s="14" t="s">
         <v>24</v>
       </c>
       <c r="C51" s="15"/>
       <c r="D51" s="15"/>
       <c r="E51" s="15">
-        <v>0</v>
+        <v>5776231</v>
       </c>
       <c r="F51" s="15">
-        <v>5776231</v>
+        <v>9975647</v>
       </c>
       <c r="G51" s="15">
-        <v>9975647</v>
+        <v>12891569</v>
       </c>
       <c r="H51" s="15">
-        <v>12891569</v>
+        <v>29835592</v>
       </c>
       <c r="I51" s="15">
-        <v>29835592</v>
-      </c>
-    </row>
-    <row r="52" spans="2:9" x14ac:dyDescent="0.25">
+        <v>56852116</v>
+      </c>
+    </row>
+    <row r="52" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B52" s="16" t="s">
         <v>35</v>
       </c>
@@ -1667,7 +1667,7 @@
       <c r="H52" s="17"/>
       <c r="I52" s="17"/>
     </row>
-    <row r="53" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B53" s="18" t="s">
         <v>26</v>
       </c>
@@ -1689,7 +1689,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B54" s="14" t="s">
         <v>27</v>
       </c>
@@ -1697,8 +1697,8 @@
         <v>33</v>
       </c>
       <c r="D54" s="15"/>
-      <c r="E54" s="15" t="s">
-        <v>13</v>
+      <c r="E54" s="15">
+        <v>0</v>
       </c>
       <c r="F54" s="15">
         <v>0</v>
@@ -1706,14 +1706,14 @@
       <c r="G54" s="15">
         <v>0</v>
       </c>
-      <c r="H54" s="15">
-        <v>0</v>
+      <c r="H54" s="15" t="s">
+        <v>15</v>
       </c>
       <c r="I54" s="15" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="55" spans="2:9" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="55" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B55" s="18" t="s">
         <v>29</v>
       </c>
@@ -1721,45 +1721,45 @@
         <v>33</v>
       </c>
       <c r="D55" s="19"/>
-      <c r="E55" s="19" t="s">
-        <v>13</v>
+      <c r="E55" s="19">
+        <v>-31670</v>
       </c>
       <c r="F55" s="19">
-        <v>-31670</v>
+        <v>-29204</v>
       </c>
       <c r="G55" s="19">
-        <v>-29204</v>
+        <v>-7130</v>
       </c>
       <c r="H55" s="19">
-        <v>-7130</v>
+        <v>0</v>
       </c>
       <c r="I55" s="19">
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B56" s="14" t="s">
         <v>30</v>
       </c>
       <c r="C56" s="15"/>
       <c r="D56" s="15"/>
       <c r="E56" s="15">
-        <v>0</v>
+        <v>9508850</v>
       </c>
       <c r="F56" s="15">
-        <v>9508850</v>
+        <v>14124456</v>
       </c>
       <c r="G56" s="15">
-        <v>14124456</v>
+        <v>22157318</v>
       </c>
       <c r="H56" s="15">
-        <v>22157318</v>
+        <v>52733742</v>
       </c>
       <c r="I56" s="15">
-        <v>52733742</v>
-      </c>
-    </row>
-    <row r="57" spans="2:9" x14ac:dyDescent="0.25">
+        <v>79362180</v>
+      </c>
+    </row>
+    <row r="57" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B57" s="1"/>
       <c r="C57" s="1"/>
       <c r="D57" s="1"/>
@@ -1769,7 +1769,7 @@
       <c r="H57" s="1"/>
       <c r="I57" s="1"/>
     </row>
-    <row r="58" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B58" s="1"/>
       <c r="C58" s="1"/>
       <c r="D58" s="1"/>
@@ -1779,7 +1779,7 @@
       <c r="H58" s="1"/>
       <c r="I58" s="1"/>
     </row>
-    <row r="59" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B59" s="1"/>
       <c r="C59" s="1"/>
       <c r="D59" s="1"/>
@@ -1789,7 +1789,7 @@
       <c r="H59" s="1"/>
       <c r="I59" s="1"/>
     </row>
-    <row r="60" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B60" s="7" t="s">
         <v>36</v>
       </c>
@@ -1811,7 +1811,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="61" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B61" s="1"/>
       <c r="C61" s="1"/>
       <c r="D61" s="1"/>
@@ -1821,7 +1821,7 @@
       <c r="H61" s="1"/>
       <c r="I61" s="1"/>
     </row>
-    <row r="62" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="62" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B62" s="8" t="s">
         <v>37</v>
       </c>
@@ -1833,7 +1833,7 @@
       <c r="H62" s="9"/>
       <c r="I62" s="9"/>
     </row>
-    <row r="63" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="63" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B63" s="10" t="s">
         <v>11</v>
       </c>
@@ -1841,71 +1841,71 @@
         <v>38</v>
       </c>
       <c r="D63" s="11"/>
-      <c r="E63" s="11" t="s">
+      <c r="E63" s="11">
+        <v>11149066</v>
+      </c>
+      <c r="F63" s="11">
+        <v>17179235</v>
+      </c>
+      <c r="G63" s="11">
+        <v>31675999</v>
+      </c>
+      <c r="H63" s="11">
+        <v>0</v>
+      </c>
+      <c r="I63" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B64" s="12" t="s">
         <v>13</v>
-      </c>
-      <c r="F63" s="11">
-        <v>11149066</v>
-      </c>
-      <c r="G63" s="11">
-        <v>17179235</v>
-      </c>
-      <c r="H63" s="11">
-        <v>31675999</v>
-      </c>
-      <c r="I63" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="64" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B64" s="12" t="s">
-        <v>14</v>
       </c>
       <c r="C64" s="13" t="s">
         <v>38</v>
       </c>
       <c r="D64" s="13"/>
-      <c r="E64" s="13" t="s">
-        <v>13</v>
+      <c r="E64" s="13">
+        <v>13333228</v>
       </c>
       <c r="F64" s="13">
-        <v>13333228</v>
+        <v>13620008</v>
       </c>
       <c r="G64" s="13">
-        <v>13620008</v>
+        <v>28173393</v>
       </c>
       <c r="H64" s="13">
-        <v>28173393</v>
+        <v>92021170</v>
       </c>
       <c r="I64" s="13">
-        <v>92021170</v>
-      </c>
-    </row>
-    <row r="65" spans="2:9" x14ac:dyDescent="0.25">
+        <v>187017740</v>
+      </c>
+    </row>
+    <row r="65" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B65" s="10" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C65" s="11" t="s">
         <v>38</v>
       </c>
       <c r="D65" s="11"/>
       <c r="E65" s="11" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="F65" s="11" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="G65" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="H65" s="11" t="s">
-        <v>13</v>
+        <v>15</v>
+      </c>
+      <c r="H65" s="11">
+        <v>94901662</v>
       </c>
       <c r="I65" s="11">
-        <v>94901662</v>
-      </c>
-    </row>
-    <row r="66" spans="2:9" x14ac:dyDescent="0.25">
+        <v>128343260</v>
+      </c>
+    </row>
+    <row r="66" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B66" s="12" t="s">
         <v>16</v>
       </c>
@@ -1913,23 +1913,23 @@
         <v>38</v>
       </c>
       <c r="D66" s="13"/>
-      <c r="E66" s="13" t="s">
-        <v>13</v>
+      <c r="E66" s="13">
+        <v>96432621</v>
       </c>
       <c r="F66" s="13">
-        <v>96432621</v>
+        <v>99627006</v>
       </c>
       <c r="G66" s="13">
-        <v>99627006</v>
+        <v>221970698</v>
       </c>
       <c r="H66" s="13">
-        <v>221970698</v>
+        <v>0</v>
       </c>
       <c r="I66" s="13">
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="67" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B67" s="10" t="s">
         <v>17</v>
       </c>
@@ -1938,22 +1938,22 @@
       </c>
       <c r="D67" s="11"/>
       <c r="E67" s="11" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="F67" s="11" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="G67" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="H67" s="11" t="s">
-        <v>13</v>
+        <v>15</v>
+      </c>
+      <c r="H67" s="11">
+        <v>580016623</v>
       </c>
       <c r="I67" s="11">
-        <v>580016623</v>
-      </c>
-    </row>
-    <row r="68" spans="2:9" x14ac:dyDescent="0.25">
+        <v>478457960</v>
+      </c>
+    </row>
+    <row r="68" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B68" s="12" t="s">
         <v>18</v>
       </c>
@@ -1962,22 +1962,22 @@
       </c>
       <c r="D68" s="13"/>
       <c r="E68" s="13" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="F68" s="13" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="G68" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="H68" s="13" t="s">
-        <v>13</v>
+        <v>15</v>
+      </c>
+      <c r="H68" s="13">
+        <v>0</v>
       </c>
       <c r="I68" s="13">
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="69" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B69" s="10" t="s">
         <v>19</v>
       </c>
@@ -1986,22 +1986,22 @@
       </c>
       <c r="D69" s="11"/>
       <c r="E69" s="11" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="F69" s="11" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="G69" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="H69" s="11" t="s">
-        <v>13</v>
+        <v>15</v>
+      </c>
+      <c r="H69" s="11">
+        <v>0</v>
       </c>
       <c r="I69" s="11">
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="70" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B70" s="12" t="s">
         <v>20</v>
       </c>
@@ -2010,22 +2010,22 @@
       </c>
       <c r="D70" s="13"/>
       <c r="E70" s="13" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="F70" s="13" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="G70" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="H70" s="13" t="s">
-        <v>13</v>
+        <v>15</v>
+      </c>
+      <c r="H70" s="13">
+        <v>0</v>
       </c>
       <c r="I70" s="13">
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="71" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B71" s="10" t="s">
         <v>21</v>
       </c>
@@ -2034,22 +2034,22 @@
       </c>
       <c r="D71" s="11"/>
       <c r="E71" s="11" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="F71" s="11" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="G71" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="H71" s="11" t="s">
-        <v>13</v>
+        <v>15</v>
+      </c>
+      <c r="H71" s="11">
+        <v>66111910</v>
       </c>
       <c r="I71" s="11">
-        <v>66111910</v>
-      </c>
-    </row>
-    <row r="72" spans="2:9" x14ac:dyDescent="0.25">
+        <v>98233437</v>
+      </c>
+    </row>
+    <row r="72" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B72" s="8" t="s">
         <v>39</v>
       </c>
@@ -2061,7 +2061,7 @@
       <c r="H72" s="9"/>
       <c r="I72" s="9"/>
     </row>
-    <row r="73" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="73" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B73" s="10" t="s">
         <v>11</v>
       </c>
@@ -2069,47 +2069,47 @@
         <v>38</v>
       </c>
       <c r="D73" s="11"/>
-      <c r="E73" s="11" t="s">
+      <c r="E73" s="11">
+        <v>16523011</v>
+      </c>
+      <c r="F73" s="11">
+        <v>24085329</v>
+      </c>
+      <c r="G73" s="11">
+        <v>44133761</v>
+      </c>
+      <c r="H73" s="11">
+        <v>98239278</v>
+      </c>
+      <c r="I73" s="11">
+        <v>139947971</v>
+      </c>
+    </row>
+    <row r="74" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B74" s="12" t="s">
         <v>13</v>
-      </c>
-      <c r="F73" s="11">
-        <v>16523011</v>
-      </c>
-      <c r="G73" s="11">
-        <v>24085329</v>
-      </c>
-      <c r="H73" s="11">
-        <v>44133761</v>
-      </c>
-      <c r="I73" s="11">
-        <v>98239278</v>
-      </c>
-    </row>
-    <row r="74" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B74" s="12" t="s">
-        <v>14</v>
       </c>
       <c r="C74" s="13" t="s">
         <v>38</v>
       </c>
       <c r="D74" s="13"/>
-      <c r="E74" s="13" t="s">
-        <v>13</v>
+      <c r="E74" s="13">
+        <v>12322013</v>
       </c>
       <c r="F74" s="13">
-        <v>12322013</v>
+        <v>14746968</v>
       </c>
       <c r="G74" s="13">
-        <v>14746968</v>
+        <v>28919806</v>
       </c>
       <c r="H74" s="13">
-        <v>28919806</v>
+        <v>104237739</v>
       </c>
       <c r="I74" s="13">
-        <v>104237739</v>
-      </c>
-    </row>
-    <row r="75" spans="2:9" x14ac:dyDescent="0.25">
+        <v>191319613</v>
+      </c>
+    </row>
+    <row r="75" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B75" s="10" t="s">
         <v>16</v>
       </c>
@@ -2117,23 +2117,23 @@
         <v>38</v>
       </c>
       <c r="D75" s="11"/>
-      <c r="E75" s="11" t="s">
-        <v>13</v>
+      <c r="E75" s="11">
+        <v>88649162</v>
       </c>
       <c r="F75" s="11">
-        <v>88649162</v>
+        <v>97675223</v>
       </c>
       <c r="G75" s="11">
-        <v>97675223</v>
+        <v>193756142</v>
       </c>
       <c r="H75" s="11">
-        <v>193756142</v>
+        <v>623051286</v>
       </c>
       <c r="I75" s="11">
-        <v>623051286</v>
-      </c>
-    </row>
-    <row r="76" spans="2:9" x14ac:dyDescent="0.25">
+        <v>503314026</v>
+      </c>
+    </row>
+    <row r="76" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B76" s="1"/>
       <c r="C76" s="1"/>
       <c r="D76" s="1"/>
@@ -2143,7 +2143,7 @@
       <c r="H76" s="1"/>
       <c r="I76" s="1"/>
     </row>
-    <row r="77" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="77" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B77" s="1"/>
       <c r="C77" s="1"/>
       <c r="D77" s="1"/>
@@ -2153,7 +2153,7 @@
       <c r="H77" s="1"/>
       <c r="I77" s="1"/>
     </row>
-    <row r="78" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="78" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B78" s="1"/>
       <c r="C78" s="1"/>
       <c r="D78" s="1"/>
@@ -2163,7 +2163,7 @@
       <c r="H78" s="1"/>
       <c r="I78" s="1"/>
     </row>
-    <row r="79" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="79" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B79" s="7" t="s">
         <v>40</v>
       </c>
@@ -2185,7 +2185,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="80" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="80" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B80" s="1"/>
       <c r="C80" s="1"/>
       <c r="D80" s="1"/>
@@ -2195,7 +2195,7 @@
       <c r="H80" s="1"/>
       <c r="I80" s="1"/>
     </row>
-    <row r="81" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="81" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B81" s="8" t="s">
         <v>41</v>
       </c>
@@ -2207,7 +2207,7 @@
       <c r="H81" s="9"/>
       <c r="I81" s="9"/>
     </row>
-    <row r="82" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="82" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B82" s="10" t="s">
         <v>11</v>
       </c>
@@ -2215,71 +2215,71 @@
         <v>33</v>
       </c>
       <c r="D82" s="11"/>
-      <c r="E82" s="11" t="s">
+      <c r="E82" s="11">
+        <v>-1291700</v>
+      </c>
+      <c r="F82" s="11">
+        <v>-1310825</v>
+      </c>
+      <c r="G82" s="11">
+        <v>-2405129</v>
+      </c>
+      <c r="H82" s="11">
+        <v>0</v>
+      </c>
+      <c r="I82" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B83" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="F82" s="11">
-        <v>-1291700</v>
-      </c>
-      <c r="G82" s="11">
-        <v>-1310825</v>
-      </c>
-      <c r="H82" s="11">
-        <v>-2405129</v>
-      </c>
-      <c r="I82" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="83" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B83" s="12" t="s">
+      <c r="C83" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="D83" s="13"/>
+      <c r="E83" s="13">
+        <v>-170960</v>
+      </c>
+      <c r="F83" s="13">
+        <v>-239511</v>
+      </c>
+      <c r="G83" s="13">
+        <v>-165631</v>
+      </c>
+      <c r="H83" s="13">
+        <v>-1016689</v>
+      </c>
+      <c r="I83" s="13">
+        <v>-650549</v>
+      </c>
+    </row>
+    <row r="84" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B84" s="10" t="s">
         <v>14</v>
-      </c>
-      <c r="C83" s="13" t="s">
-        <v>33</v>
-      </c>
-      <c r="D83" s="13"/>
-      <c r="E83" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="F83" s="13">
-        <v>-170960</v>
-      </c>
-      <c r="G83" s="13">
-        <v>-239511</v>
-      </c>
-      <c r="H83" s="13">
-        <v>-165631</v>
-      </c>
-      <c r="I83" s="13">
-        <v>-1016689</v>
-      </c>
-    </row>
-    <row r="84" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B84" s="10" t="s">
-        <v>15</v>
       </c>
       <c r="C84" s="11" t="s">
         <v>33</v>
       </c>
       <c r="D84" s="11"/>
       <c r="E84" s="11" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="F84" s="11" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="G84" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="H84" s="11" t="s">
-        <v>13</v>
+        <v>15</v>
+      </c>
+      <c r="H84" s="11">
+        <v>-389473</v>
       </c>
       <c r="I84" s="11">
-        <v>-389473</v>
-      </c>
-    </row>
-    <row r="85" spans="2:9" x14ac:dyDescent="0.25">
+        <v>-562194</v>
+      </c>
+    </row>
+    <row r="85" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B85" s="12" t="s">
         <v>16</v>
       </c>
@@ -2287,23 +2287,23 @@
         <v>33</v>
       </c>
       <c r="D85" s="13"/>
-      <c r="E85" s="13" t="s">
-        <v>13</v>
+      <c r="E85" s="13">
+        <v>-264839</v>
       </c>
       <c r="F85" s="13">
-        <v>-264839</v>
+        <v>-337916</v>
       </c>
       <c r="G85" s="13">
-        <v>-337916</v>
+        <v>-740317</v>
       </c>
       <c r="H85" s="13">
-        <v>-740317</v>
+        <v>0</v>
       </c>
       <c r="I85" s="13">
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="86" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B86" s="10" t="s">
         <v>17</v>
       </c>
@@ -2312,22 +2312,22 @@
       </c>
       <c r="D86" s="11"/>
       <c r="E86" s="11" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="F86" s="11" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="G86" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="H86" s="11" t="s">
-        <v>13</v>
+        <v>15</v>
+      </c>
+      <c r="H86" s="11">
+        <v>-2028431</v>
       </c>
       <c r="I86" s="11">
-        <v>-2028431</v>
-      </c>
-    </row>
-    <row r="87" spans="2:9" x14ac:dyDescent="0.25">
+        <v>-2687094</v>
+      </c>
+    </row>
+    <row r="87" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B87" s="12" t="s">
         <v>18</v>
       </c>
@@ -2336,22 +2336,22 @@
       </c>
       <c r="D87" s="13"/>
       <c r="E87" s="13" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="F87" s="13" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="G87" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="H87" s="13" t="s">
-        <v>13</v>
+        <v>15</v>
+      </c>
+      <c r="H87" s="13">
+        <v>0</v>
       </c>
       <c r="I87" s="13">
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="88" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B88" s="10" t="s">
         <v>19</v>
       </c>
@@ -2360,22 +2360,22 @@
       </c>
       <c r="D88" s="11"/>
       <c r="E88" s="11" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="F88" s="11" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="G88" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="H88" s="11" t="s">
-        <v>13</v>
+        <v>15</v>
+      </c>
+      <c r="H88" s="11">
+        <v>0</v>
       </c>
       <c r="I88" s="11">
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="89" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B89" s="12" t="s">
         <v>20</v>
       </c>
@@ -2384,22 +2384,22 @@
       </c>
       <c r="D89" s="13"/>
       <c r="E89" s="13" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="F89" s="13" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="G89" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="H89" s="13" t="s">
-        <v>13</v>
+        <v>15</v>
+      </c>
+      <c r="H89" s="13">
+        <v>0</v>
       </c>
       <c r="I89" s="13">
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="90" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B90" s="10" t="s">
         <v>21</v>
       </c>
@@ -2408,44 +2408,44 @@
       </c>
       <c r="D90" s="11"/>
       <c r="E90" s="11" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="F90" s="11" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="G90" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="H90" s="11" t="s">
-        <v>13</v>
+        <v>15</v>
+      </c>
+      <c r="H90" s="11">
+        <v>-5545350</v>
       </c>
       <c r="I90" s="11">
-        <v>-5545350</v>
-      </c>
-    </row>
-    <row r="91" spans="2:9" x14ac:dyDescent="0.25">
+        <v>-4461803</v>
+      </c>
+    </row>
+    <row r="91" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B91" s="14" t="s">
         <v>42</v>
       </c>
       <c r="C91" s="15"/>
       <c r="D91" s="15"/>
       <c r="E91" s="15">
-        <v>0</v>
+        <v>-1727499</v>
       </c>
       <c r="F91" s="15">
-        <v>-1727499</v>
+        <v>-1888252</v>
       </c>
       <c r="G91" s="15">
-        <v>-1888252</v>
+        <v>-3311077</v>
       </c>
       <c r="H91" s="15">
-        <v>-3311077</v>
+        <v>-8979943</v>
       </c>
       <c r="I91" s="15">
-        <v>-8979943</v>
-      </c>
-    </row>
-    <row r="92" spans="2:9" x14ac:dyDescent="0.25">
+        <v>-8361640</v>
+      </c>
+    </row>
+    <row r="92" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B92" s="8" t="s">
         <v>43</v>
       </c>
@@ -2457,7 +2457,7 @@
       <c r="H92" s="9"/>
       <c r="I92" s="9"/>
     </row>
-    <row r="93" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="93" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B93" s="10" t="s">
         <v>11</v>
       </c>
@@ -2465,47 +2465,47 @@
         <v>33</v>
       </c>
       <c r="D93" s="11"/>
-      <c r="E93" s="11" t="s">
+      <c r="E93" s="11">
+        <v>-1722795</v>
+      </c>
+      <c r="F93" s="11">
+        <v>-2751519</v>
+      </c>
+      <c r="G93" s="11">
+        <v>-3756160</v>
+      </c>
+      <c r="H93" s="11">
+        <v>-8584578</v>
+      </c>
+      <c r="I93" s="11">
+        <v>-14808098</v>
+      </c>
+    </row>
+    <row r="94" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B94" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="F93" s="11">
-        <v>-1722795</v>
-      </c>
-      <c r="G93" s="11">
-        <v>-2751519</v>
-      </c>
-      <c r="H93" s="11">
-        <v>-3756160</v>
-      </c>
-      <c r="I93" s="11">
-        <v>-8584578</v>
-      </c>
-    </row>
-    <row r="94" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B94" s="12" t="s">
-        <v>14</v>
-      </c>
       <c r="C94" s="13" t="s">
         <v>33</v>
       </c>
       <c r="D94" s="13"/>
-      <c r="E94" s="13" t="s">
-        <v>13</v>
+      <c r="E94" s="13">
+        <v>-18382</v>
       </c>
       <c r="F94" s="13">
-        <v>-18382</v>
+        <v>-12657</v>
       </c>
       <c r="G94" s="13">
-        <v>-12657</v>
+        <v>-44485</v>
       </c>
       <c r="H94" s="13">
-        <v>-44485</v>
+        <v>-231679</v>
       </c>
       <c r="I94" s="13">
-        <v>-231679</v>
-      </c>
-    </row>
-    <row r="95" spans="2:9" x14ac:dyDescent="0.25">
+        <v>-915536</v>
+      </c>
+    </row>
+    <row r="95" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B95" s="10" t="s">
         <v>16</v>
       </c>
@@ -2513,45 +2513,45 @@
         <v>33</v>
       </c>
       <c r="D95" s="11"/>
-      <c r="E95" s="11" t="s">
-        <v>13</v>
+      <c r="E95" s="11">
+        <v>-223859</v>
       </c>
       <c r="F95" s="11">
-        <v>-223859</v>
+        <v>-503102</v>
       </c>
       <c r="G95" s="11">
-        <v>-503102</v>
+        <v>-258390</v>
       </c>
       <c r="H95" s="11">
-        <v>-258390</v>
+        <v>-1070725</v>
       </c>
       <c r="I95" s="11">
-        <v>-1070725</v>
-      </c>
-    </row>
-    <row r="96" spans="2:9" x14ac:dyDescent="0.25">
+        <v>-670801</v>
+      </c>
+    </row>
+    <row r="96" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B96" s="14" t="s">
         <v>44</v>
       </c>
       <c r="C96" s="15"/>
       <c r="D96" s="15"/>
       <c r="E96" s="15">
-        <v>0</v>
+        <v>-1965036</v>
       </c>
       <c r="F96" s="15">
-        <v>-1965036</v>
+        <v>-3267278</v>
       </c>
       <c r="G96" s="15">
-        <v>-3267278</v>
+        <v>-4059035</v>
       </c>
       <c r="H96" s="15">
-        <v>-4059035</v>
+        <v>-9886982</v>
       </c>
       <c r="I96" s="15">
-        <v>-9886982</v>
-      </c>
-    </row>
-    <row r="97" spans="2:9" x14ac:dyDescent="0.25">
+        <v>-16394435</v>
+      </c>
+    </row>
+    <row r="97" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B97" s="16" t="s">
         <v>45</v>
       </c>
@@ -2563,7 +2563,7 @@
       <c r="H97" s="17"/>
       <c r="I97" s="17"/>
     </row>
-    <row r="98" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="98" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B98" s="18" t="s">
         <v>46</v>
       </c>
@@ -2585,7 +2585,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="99" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B99" s="14" t="s">
         <v>27</v>
       </c>
@@ -2593,8 +2593,8 @@
         <v>33</v>
       </c>
       <c r="D99" s="15"/>
-      <c r="E99" s="15" t="s">
-        <v>13</v>
+      <c r="E99" s="15">
+        <v>0</v>
       </c>
       <c r="F99" s="15">
         <v>0</v>
@@ -2602,14 +2602,14 @@
       <c r="G99" s="15">
         <v>0</v>
       </c>
-      <c r="H99" s="15">
-        <v>0</v>
+      <c r="H99" s="15" t="s">
+        <v>15</v>
       </c>
       <c r="I99" s="15" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="100" spans="2:9" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="100" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B100" s="18" t="s">
         <v>29</v>
       </c>
@@ -2617,8 +2617,8 @@
         <v>33</v>
       </c>
       <c r="D100" s="19"/>
-      <c r="E100" s="19" t="s">
-        <v>13</v>
+      <c r="E100" s="19">
+        <v>0</v>
       </c>
       <c r="F100" s="19">
         <v>0</v>
@@ -2633,29 +2633,29 @@
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="101" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B101" s="14" t="s">
         <v>30</v>
       </c>
       <c r="C101" s="15"/>
       <c r="D101" s="15"/>
       <c r="E101" s="15">
-        <v>0</v>
+        <v>-3692535</v>
       </c>
       <c r="F101" s="15">
-        <v>-3692535</v>
+        <v>-5155530</v>
       </c>
       <c r="G101" s="15">
-        <v>-5155530</v>
+        <v>-7370112</v>
       </c>
       <c r="H101" s="15">
-        <v>-7370112</v>
+        <v>-18866925</v>
       </c>
       <c r="I101" s="15">
-        <v>-18866925</v>
-      </c>
-    </row>
-    <row r="102" spans="2:9" x14ac:dyDescent="0.25">
+        <v>-24756075</v>
+      </c>
+    </row>
+    <row r="102" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B102" s="1"/>
       <c r="C102" s="1"/>
       <c r="D102" s="1"/>
@@ -2665,7 +2665,7 @@
       <c r="H102" s="1"/>
       <c r="I102" s="1"/>
     </row>
-    <row r="103" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="103" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B103" s="1"/>
       <c r="C103" s="1"/>
       <c r="D103" s="1"/>
@@ -2675,7 +2675,7 @@
       <c r="H103" s="1"/>
       <c r="I103" s="1"/>
     </row>
-    <row r="104" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="104" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B104" s="1"/>
       <c r="C104" s="1"/>
       <c r="D104" s="1"/>
@@ -2685,7 +2685,7 @@
       <c r="H104" s="1"/>
       <c r="I104" s="1"/>
     </row>
-    <row r="105" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="105" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B105" s="7" t="s">
         <v>47</v>
       </c>
@@ -2707,7 +2707,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="106" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="106" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B106" s="1"/>
       <c r="C106" s="1"/>
       <c r="D106" s="1"/>
@@ -2717,7 +2717,7 @@
       <c r="H106" s="1"/>
       <c r="I106" s="1"/>
     </row>
-    <row r="107" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="107" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B107" s="8" t="s">
         <v>48</v>
       </c>
@@ -2729,7 +2729,7 @@
       <c r="H107" s="9"/>
       <c r="I107" s="9"/>
     </row>
-    <row r="108" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="108" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B108" s="10" t="s">
         <v>11</v>
       </c>
@@ -2737,71 +2737,71 @@
         <v>33</v>
       </c>
       <c r="D108" s="11"/>
-      <c r="E108" s="11" t="s">
+      <c r="E108" s="11">
+        <v>1251547</v>
+      </c>
+      <c r="F108" s="11">
+        <v>1604663</v>
+      </c>
+      <c r="G108" s="11">
+        <v>3692279</v>
+      </c>
+      <c r="H108" s="11">
+        <v>0</v>
+      </c>
+      <c r="I108" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="109" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B109" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="F108" s="11">
-        <v>1251547</v>
-      </c>
-      <c r="G108" s="11">
-        <v>1604663</v>
-      </c>
-      <c r="H108" s="11">
-        <v>3692279</v>
-      </c>
-      <c r="I108" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="109" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B109" s="12" t="s">
+      <c r="C109" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="D109" s="13"/>
+      <c r="E109" s="13">
+        <v>124811</v>
+      </c>
+      <c r="F109" s="13">
+        <v>79347</v>
+      </c>
+      <c r="G109" s="13">
+        <v>93367</v>
+      </c>
+      <c r="H109" s="13">
+        <v>926338</v>
+      </c>
+      <c r="I109" s="13">
+        <v>1573840</v>
+      </c>
+    </row>
+    <row r="110" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B110" s="10" t="s">
         <v>14</v>
-      </c>
-      <c r="C109" s="13" t="s">
-        <v>33</v>
-      </c>
-      <c r="D109" s="13"/>
-      <c r="E109" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="F109" s="13">
-        <v>124811</v>
-      </c>
-      <c r="G109" s="13">
-        <v>79347</v>
-      </c>
-      <c r="H109" s="13">
-        <v>93367</v>
-      </c>
-      <c r="I109" s="13">
-        <v>926338</v>
-      </c>
-    </row>
-    <row r="110" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B110" s="10" t="s">
-        <v>15</v>
       </c>
       <c r="C110" s="11" t="s">
         <v>33</v>
       </c>
       <c r="D110" s="11"/>
       <c r="E110" s="11" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="F110" s="11" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="G110" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="H110" s="11" t="s">
-        <v>13</v>
+        <v>15</v>
+      </c>
+      <c r="H110" s="11">
+        <v>855447</v>
       </c>
       <c r="I110" s="11">
-        <v>855447</v>
-      </c>
-    </row>
-    <row r="111" spans="2:9" x14ac:dyDescent="0.25">
+        <v>1428795</v>
+      </c>
+    </row>
+    <row r="111" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B111" s="12" t="s">
         <v>16</v>
       </c>
@@ -2809,23 +2809,23 @@
         <v>33</v>
       </c>
       <c r="D111" s="13"/>
-      <c r="E111" s="13" t="s">
-        <v>13</v>
+      <c r="E111" s="13">
+        <v>660432</v>
       </c>
       <c r="F111" s="13">
-        <v>660432</v>
+        <v>605751</v>
       </c>
       <c r="G111" s="13">
-        <v>605751</v>
+        <v>2176156</v>
       </c>
       <c r="H111" s="13">
-        <v>2176156</v>
+        <v>0</v>
       </c>
       <c r="I111" s="13">
         <v>0</v>
       </c>
     </row>
-    <row r="112" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="112" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B112" s="10" t="s">
         <v>17</v>
       </c>
@@ -2834,22 +2834,22 @@
       </c>
       <c r="D112" s="11"/>
       <c r="E112" s="11" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="F112" s="11" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="G112" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="H112" s="11" t="s">
-        <v>13</v>
+        <v>15</v>
+      </c>
+      <c r="H112" s="11">
+        <v>5333720</v>
       </c>
       <c r="I112" s="11">
-        <v>5333720</v>
-      </c>
-    </row>
-    <row r="113" spans="2:9" x14ac:dyDescent="0.25">
+        <v>3504152</v>
+      </c>
+    </row>
+    <row r="113" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B113" s="12" t="s">
         <v>18</v>
       </c>
@@ -2858,22 +2858,22 @@
       </c>
       <c r="D113" s="13"/>
       <c r="E113" s="13" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="F113" s="13" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="G113" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="H113" s="13" t="s">
-        <v>13</v>
+        <v>15</v>
+      </c>
+      <c r="H113" s="13">
+        <v>0</v>
       </c>
       <c r="I113" s="13">
         <v>0</v>
       </c>
     </row>
-    <row r="114" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="114" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B114" s="10" t="s">
         <v>19</v>
       </c>
@@ -2882,22 +2882,22 @@
       </c>
       <c r="D114" s="11"/>
       <c r="E114" s="11" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="F114" s="11" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="G114" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="H114" s="11" t="s">
-        <v>13</v>
+        <v>15</v>
+      </c>
+      <c r="H114" s="11">
+        <v>0</v>
       </c>
       <c r="I114" s="11">
         <v>0</v>
       </c>
     </row>
-    <row r="115" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="115" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B115" s="12" t="s">
         <v>20</v>
       </c>
@@ -2906,22 +2906,22 @@
       </c>
       <c r="D115" s="13"/>
       <c r="E115" s="13" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="F115" s="13" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="G115" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="H115" s="13" t="s">
-        <v>13</v>
+        <v>15</v>
+      </c>
+      <c r="H115" s="13">
+        <v>0</v>
       </c>
       <c r="I115" s="13">
         <v>0</v>
       </c>
     </row>
-    <row r="116" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="116" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B116" s="10" t="s">
         <v>21</v>
       </c>
@@ -2930,44 +2930,44 @@
       </c>
       <c r="D116" s="11"/>
       <c r="E116" s="11" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="F116" s="11" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="G116" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="H116" s="11" t="s">
-        <v>13</v>
+        <v>15</v>
+      </c>
+      <c r="H116" s="11">
+        <v>6802702</v>
       </c>
       <c r="I116" s="11">
-        <v>6802702</v>
-      </c>
-    </row>
-    <row r="117" spans="2:9" x14ac:dyDescent="0.25">
+        <v>7641637</v>
+      </c>
+    </row>
+    <row r="117" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B117" s="14" t="s">
         <v>49</v>
       </c>
       <c r="C117" s="15"/>
       <c r="D117" s="15"/>
       <c r="E117" s="15">
-        <v>0</v>
+        <v>2036790</v>
       </c>
       <c r="F117" s="15">
-        <v>2036790</v>
+        <v>2289761</v>
       </c>
       <c r="G117" s="15">
-        <v>2289761</v>
+        <v>5961802</v>
       </c>
       <c r="H117" s="15">
-        <v>5961802</v>
+        <v>13918207</v>
       </c>
       <c r="I117" s="15">
-        <v>13918207</v>
-      </c>
-    </row>
-    <row r="118" spans="2:9" x14ac:dyDescent="0.25">
+        <v>14148424</v>
+      </c>
+    </row>
+    <row r="118" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B118" s="8" t="s">
         <v>50</v>
       </c>
@@ -2979,7 +2979,7 @@
       <c r="H118" s="9"/>
       <c r="I118" s="9"/>
     </row>
-    <row r="119" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="119" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B119" s="10" t="s">
         <v>11</v>
       </c>
@@ -2987,47 +2987,47 @@
         <v>33</v>
       </c>
       <c r="D119" s="11"/>
-      <c r="E119" s="11" t="s">
+      <c r="E119" s="11">
+        <v>3304926</v>
+      </c>
+      <c r="F119" s="11">
+        <v>5828470</v>
+      </c>
+      <c r="G119" s="11">
+        <v>8212254</v>
+      </c>
+      <c r="H119" s="11">
+        <v>16655352</v>
+      </c>
+      <c r="I119" s="11">
+        <v>37233934</v>
+      </c>
+    </row>
+    <row r="120" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B120" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="F119" s="11">
-        <v>3304926</v>
-      </c>
-      <c r="G119" s="11">
-        <v>5828470</v>
-      </c>
-      <c r="H119" s="11">
-        <v>8212254</v>
-      </c>
-      <c r="I119" s="11">
-        <v>16655352</v>
-      </c>
-    </row>
-    <row r="120" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B120" s="12" t="s">
-        <v>14</v>
-      </c>
       <c r="C120" s="13" t="s">
         <v>33</v>
       </c>
       <c r="D120" s="13"/>
-      <c r="E120" s="13" t="s">
-        <v>13</v>
+      <c r="E120" s="13">
+        <v>11006</v>
       </c>
       <c r="F120" s="13">
-        <v>11006</v>
+        <v>5585</v>
       </c>
       <c r="G120" s="13">
-        <v>5585</v>
+        <v>26918</v>
       </c>
       <c r="H120" s="13">
-        <v>26918</v>
+        <v>269913</v>
       </c>
       <c r="I120" s="13">
-        <v>269913</v>
-      </c>
-    </row>
-    <row r="121" spans="2:9" x14ac:dyDescent="0.25">
+        <v>2286963</v>
+      </c>
+    </row>
+    <row r="121" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B121" s="10" t="s">
         <v>16</v>
       </c>
@@ -3035,45 +3035,45 @@
         <v>33</v>
       </c>
       <c r="D121" s="11"/>
-      <c r="E121" s="11" t="s">
-        <v>13</v>
+      <c r="E121" s="11">
+        <v>495263</v>
       </c>
       <c r="F121" s="11">
-        <v>495263</v>
+        <v>874314</v>
       </c>
       <c r="G121" s="11">
-        <v>874314</v>
+        <v>593362</v>
       </c>
       <c r="H121" s="11">
-        <v>593362</v>
+        <v>3023345</v>
       </c>
       <c r="I121" s="11">
-        <v>3023345</v>
-      </c>
-    </row>
-    <row r="122" spans="2:9" x14ac:dyDescent="0.25">
+        <v>936784</v>
+      </c>
+    </row>
+    <row r="122" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B122" s="14" t="s">
         <v>51</v>
       </c>
       <c r="C122" s="15"/>
       <c r="D122" s="15"/>
       <c r="E122" s="15">
-        <v>0</v>
+        <v>3811195</v>
       </c>
       <c r="F122" s="15">
-        <v>3811195</v>
+        <v>6708369</v>
       </c>
       <c r="G122" s="15">
-        <v>6708369</v>
+        <v>8832534</v>
       </c>
       <c r="H122" s="15">
-        <v>8832534</v>
+        <v>19948610</v>
       </c>
       <c r="I122" s="15">
-        <v>19948610</v>
-      </c>
-    </row>
-    <row r="123" spans="2:9" x14ac:dyDescent="0.25">
+        <v>40457681</v>
+      </c>
+    </row>
+    <row r="123" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B123" s="16" t="s">
         <v>52</v>
       </c>
@@ -3085,7 +3085,7 @@
       <c r="H123" s="17"/>
       <c r="I123" s="17"/>
     </row>
-    <row r="124" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="124" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B124" s="18" t="s">
         <v>53</v>
       </c>
@@ -3107,26 +3107,26 @@
         <v>0</v>
       </c>
     </row>
-    <row r="125" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="125" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B125" s="14" t="s">
         <v>30</v>
       </c>
       <c r="C125" s="15"/>
       <c r="D125" s="15"/>
       <c r="E125" s="15">
-        <v>0</v>
+        <v>5847985</v>
       </c>
       <c r="F125" s="15">
-        <v>5847985</v>
+        <v>8998130</v>
       </c>
       <c r="G125" s="15">
-        <v>8998130</v>
+        <v>14794336</v>
       </c>
       <c r="H125" s="15">
-        <v>14794336</v>
+        <v>33866817</v>
       </c>
       <c r="I125" s="15">
-        <v>33866817</v>
+        <v>54606105</v>
       </c>
     </row>
   </sheetData>
